--- a/biology/Médecine/Monoblaste/Monoblaste.xlsx
+++ b/biology/Médecine/Monoblaste/Monoblaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les monoblastes sont des cellules qui se trouvent normalement dans la moelle osseuse et n'apparaissent pas dans le sang périphérique normal. Elles se transforment en monocytes, qui se transforment ensuite en macrophages.
 </t>
